--- a/data/trans_bre/P25_9-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,66</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>17,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>312,7%</t>
+          <t>18,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>403,76%</t>
+          <t>465,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>497,09%</t>
+          <t>504,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>800,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>249,86%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 20,3</t>
+          <t>12,42; 25,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 19,17</t>
+          <t>11,73; 23,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 17,29</t>
+          <t>11,25; 22,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>147,87; 630,79</t>
+          <t>10,54; 26,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>171,66; 827,97</t>
+          <t>151,07; 1304,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>221,13; 1101,42</t>
+          <t>186,87; 1300,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>226,38; 2960,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85,08; 564,15</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,88</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>281,8%</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>183,65%</t>
+          <t>154,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>391,64%</t>
+          <t>266,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>226,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93,72%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 19,72</t>
+          <t>3,15; 16,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 17,75</t>
+          <t>4,44; 15,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 24,25</t>
+          <t>3,44; 15,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>106,99; 616,59</t>
+          <t>0,15; 18,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 490,52</t>
+          <t>21,91; 447,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>156,01; 941,75</t>
+          <t>62,39; 1001,89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28,33; 602,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 276,98</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>200,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>361,05%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>216,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>165,43%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 9,5</t>
+          <t>-4,48; 20,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 16,39</t>
+          <t>0,0; 25,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 12,8</t>
+          <t>-4,27; 19,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-3,65; 34,71</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-54,99; 544,86</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,14; 1033,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-40,08; —</t>
         </is>
       </c>
     </row>
@@ -844,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -859,17 +935,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>272,34%</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>243,11%</t>
+          <t>284,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>377,52%</t>
+          <t>393,75%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>413,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>169,44%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,51</t>
+          <t>9,27; 18,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,71</t>
+          <t>9,92; 17,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,55</t>
+          <t>9,23; 17,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>156,45; 464,4</t>
+          <t>9,13; 21,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,4; 423,31</t>
+          <t>137,29; 566,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>204,97; 660,54</t>
+          <t>185,23; 817,81</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>190,24; 904,19</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75,21; 324,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_9-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>18,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,99</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>465,96%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>504,42%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>800,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>249,86%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.53222138301007</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.5302195965161</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.39208803014557</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.7677141390607</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>4.906850700220502</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>5.315353157561583</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>8.142507971602924</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.565305026912981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 25,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>11,73; 23,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 22,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,54; 26,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>151,07; 1304,69</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>186,87; 1300,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>226,38; 2960,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>85,08; 564,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>12.58980835047564</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>11.74557573838286</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11.15649187387402</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10.22691224524533</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1.674922140710973</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2.015475506607245</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>2.261409965146759</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.8730702854821319</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.76922669201605</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.8576448761827</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.82172940978671</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.13039769363724</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>13.29407151308006</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>13.66079198673663</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>29.70859306604113</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.76187052537132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,83</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>154,66%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>266,83%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>226,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>93,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 16,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 15,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 15,63</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 18,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>21,91; 447,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>62,39; 1001,89</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>28,33; 602,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 276,98</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.916141586160066</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.42879046585229</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.13602863134221</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.84496623822308</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.619696271982317</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.009782951714847</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.538506491243151</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.152871343605171</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,91</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>200,96%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>361,05%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>216,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>165,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.180409773805817</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.329481432010681</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.930912934355921</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.909046789031686</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1904477501746297</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.783993829905821</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.393886537807567</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.06074972391760562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 20,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 25,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 19,48</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,65; 34,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-40,08; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.62387835705663</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.86384891515838</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.84945418380006</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.47196007969968</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.709325573411437</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>11.74390749895169</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.874969003553762</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.142380763925396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,89</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>284,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>393,75%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>413,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>169,44%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.007948630859973</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.07459791315969</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.447432341956723</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>12.52064975767868</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.298286284725152</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>4.332740845288865</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.092560607419174</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.47117945491313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>9,27; 18,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 17,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 17,06</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 21,33</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>137,29; 566,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>185,23; 817,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>190,24; 904,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>75,21; 324,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.875130914863909</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.038853643346702</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.225657268164959</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.449041344601097</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.436784154973999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.46793517852788</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>28.40672269377924</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.42621301821012</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>33.27064247274325</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>14.42517478327708</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.92898667299133</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>12.77516528953517</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>15.04318415328707</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.01330569133673</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>4.261173219014878</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>4.311025062726414</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.8139724033666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>9.784688807168877</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>10.24854661052248</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>9.170265016838679</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9.239219753315323</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.436672245801548</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.117762879081609</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.919904039905352</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.8380025631751895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.30360898719901</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.25444171388134</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.22777228322268</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>21.05613218745992</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.981926050125628</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.866215248642295</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>9.047956873792808</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.47369847765154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
